--- a/MathMateWebsite/Samples/Student Format.xlsx
+++ b/MathMateWebsite/Samples/Student Format.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Student Number</t>
   </si>
@@ -28,49 +28,64 @@
     <t>Sex</t>
   </si>
   <si>
+    <t>Guardian Email</t>
+  </si>
+  <si>
     <t>Contact Number</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>Orijuela</t>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Sheeran</t>
+  </si>
+  <si>
+    <t>6/2/2000</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>guardian@email.com</t>
+  </si>
+  <si>
+    <t>09666232523</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Jackson</t>
   </si>
   <si>
     <t>12/12/2022</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>09666232523</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>Bieber</t>
-  </si>
-  <si>
-    <t>12446152</t>
-  </si>
-  <si>
-    <t>Wazzzup</t>
-  </si>
-  <si>
-    <t>Yeagh</t>
+    <t>parent@email.com</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>Katy</t>
+  </si>
+  <si>
+    <t>Perry</t>
   </si>
   <si>
     <t>12/9/2022</t>
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>mother@email.com</t>
   </si>
 </sst>
 </file>
@@ -345,6 +360,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.88"/>
     <col customWidth="1" min="6" max="6" width="19.88"/>
+    <col customWidth="1" min="7" max="7" width="19.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -366,65 +382,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
